--- a/PublicTools/econfigs/magicLevelup.xlsx
+++ b/PublicTools/econfigs/magicLevelup.xlsx
@@ -43666,7 +43666,7 @@
         <v>54</v>
       </c>
       <c r="B323" s="12">
-        <v>23001.0</v>
+        <v>24001.0</v>
       </c>
       <c r="C323" s="4">
         <v>24.0</v>
@@ -43711,7 +43711,7 @@
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="3"/>
       <c r="B324" s="4">
-        <v>23002.0</v>
+        <v>24002.0</v>
       </c>
       <c r="C324" s="4">
         <v>24.0</v>
@@ -43756,7 +43756,7 @@
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="3"/>
       <c r="B325" s="12">
-        <v>23003.0</v>
+        <v>24003.0</v>
       </c>
       <c r="C325" s="4">
         <v>24.0</v>
@@ -43801,7 +43801,7 @@
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="3"/>
       <c r="B326" s="4">
-        <v>23004.0</v>
+        <v>24004.0</v>
       </c>
       <c r="C326" s="4">
         <v>24.0</v>
@@ -43846,7 +43846,7 @@
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="3"/>
       <c r="B327" s="12">
-        <v>23005.0</v>
+        <v>24005.0</v>
       </c>
       <c r="C327" s="4">
         <v>24.0</v>
@@ -43891,7 +43891,7 @@
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="3"/>
       <c r="B328" s="4">
-        <v>23006.0</v>
+        <v>24006.0</v>
       </c>
       <c r="C328" s="4">
         <v>24.0</v>
@@ -43936,7 +43936,7 @@
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="3"/>
       <c r="B329" s="12">
-        <v>23007.0</v>
+        <v>24007.0</v>
       </c>
       <c r="C329" s="4">
         <v>24.0</v>
@@ -43981,7 +43981,7 @@
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="4">
-        <v>23008.0</v>
+        <v>24008.0</v>
       </c>
       <c r="C330" s="4">
         <v>24.0</v>
@@ -44026,7 +44026,7 @@
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="3"/>
       <c r="B331" s="12">
-        <v>23009.0</v>
+        <v>24009.0</v>
       </c>
       <c r="C331" s="4">
         <v>24.0</v>
@@ -44071,7 +44071,7 @@
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="3"/>
       <c r="B332" s="4">
-        <v>23010.0</v>
+        <v>24010.0</v>
       </c>
       <c r="C332" s="4">
         <v>24.0</v>
@@ -44116,7 +44116,7 @@
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="3"/>
       <c r="B333" s="12">
-        <v>23011.0</v>
+        <v>24011.0</v>
       </c>
       <c r="C333" s="4">
         <v>24.0</v>
@@ -44161,7 +44161,7 @@
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="3"/>
       <c r="B334" s="4">
-        <v>23012.0</v>
+        <v>24012.0</v>
       </c>
       <c r="C334" s="4">
         <v>24.0</v>
@@ -44206,7 +44206,7 @@
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="3"/>
       <c r="B335" s="12">
-        <v>23013.0</v>
+        <v>24013.0</v>
       </c>
       <c r="C335" s="4">
         <v>24.0</v>
@@ -44251,7 +44251,7 @@
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="3"/>
       <c r="B336" s="4">
-        <v>23014.0</v>
+        <v>24014.0</v>
       </c>
       <c r="C336" s="4">
         <v>24.0</v>
@@ -44296,7 +44296,7 @@
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="3"/>
       <c r="B337" s="12">
-        <v>23015.0</v>
+        <v>24015.0</v>
       </c>
       <c r="C337" s="4">
         <v>24.0</v>
@@ -44341,7 +44341,7 @@
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="4">
-        <v>23016.0</v>
+        <v>24016.0</v>
       </c>
       <c r="C338" s="4">
         <v>24.0</v>
@@ -44386,7 +44386,7 @@
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="3"/>
       <c r="B339" s="12">
-        <v>23017.0</v>
+        <v>24017.0</v>
       </c>
       <c r="C339" s="4">
         <v>24.0</v>
@@ -44431,7 +44431,7 @@
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="3"/>
       <c r="B340" s="4">
-        <v>23018.0</v>
+        <v>24018.0</v>
       </c>
       <c r="C340" s="4">
         <v>24.0</v>
@@ -44476,7 +44476,7 @@
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="3"/>
       <c r="B341" s="12">
-        <v>23019.0</v>
+        <v>24019.0</v>
       </c>
       <c r="C341" s="4">
         <v>24.0</v>
@@ -44520,8 +44520,8 @@
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="3"/>
-      <c r="B342" s="12">
-        <v>23020.0</v>
+      <c r="B342" s="4">
+        <v>24020.0</v>
       </c>
       <c r="C342" s="4">
         <v>24.0</v>
@@ -44565,8 +44565,8 @@
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="3"/>
-      <c r="B343" s="4">
-        <v>23021.0</v>
+      <c r="B343" s="12">
+        <v>24021.0</v>
       </c>
       <c r="C343" s="4">
         <v>24.0</v>
@@ -44610,8 +44610,8 @@
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="3"/>
-      <c r="B344" s="12">
-        <v>23022.0</v>
+      <c r="B344" s="4">
+        <v>24022.0</v>
       </c>
       <c r="C344" s="4">
         <v>24.0</v>
@@ -44656,7 +44656,7 @@
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="3"/>
       <c r="B345" s="12">
-        <v>23023.0</v>
+        <v>24023.0</v>
       </c>
       <c r="C345" s="4">
         <v>24.0</v>
@@ -44701,7 +44701,7 @@
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="3"/>
       <c r="B346" s="4">
-        <v>23024.0</v>
+        <v>24024.0</v>
       </c>
       <c r="C346" s="4">
         <v>24.0</v>
@@ -44746,7 +44746,7 @@
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="3"/>
       <c r="B347" s="12">
-        <v>23025.0</v>
+        <v>24025.0</v>
       </c>
       <c r="C347" s="4">
         <v>24.0</v>

--- a/PublicTools/econfigs/magicLevelup.xlsx
+++ b/PublicTools/econfigs/magicLevelup.xlsx
@@ -25,20 +25,10 @@
     <t>编号</t>
   </si>
   <si>
-    <t>MagicLevelUpData.json</t>
+    <t>ID</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="宋体"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>英雄数据表</t>
-    </r>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>MagicLevelUpData.json</t>
   </si>
   <si>
     <t>MagicID</t>
@@ -69,6 +59,16 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="宋体"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>英雄数据表</t>
+    </r>
   </si>
   <si>
     <t>类型</t>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -225,10 +225,6 @@
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -274,7 +270,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -295,10 +291,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -307,13 +303,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -549,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -28580,7 +28576,7 @@
     <col customWidth="1" min="6" max="6" width="9.13"/>
     <col customWidth="1" min="7" max="8" width="11.25"/>
     <col customWidth="1" min="9" max="11" width="9.88"/>
-    <col customWidth="1" min="12" max="12" width="20.25"/>
+    <col customWidth="1" min="12" max="12" width="29.75"/>
     <col customWidth="1" min="13" max="28" width="7.75"/>
   </cols>
   <sheetData>
@@ -28589,37 +28585,37 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -28700,7 +28696,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
@@ -30127,7 +30123,7 @@
         <v>1.0</v>
       </c>
       <c r="H34" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -30176,7 +30172,7 @@
         <v>5.0</v>
       </c>
       <c r="H35" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -30225,7 +30221,7 @@
         <v>9.0</v>
       </c>
       <c r="H36" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -30272,7 +30268,7 @@
         <v>13.0</v>
       </c>
       <c r="H37" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -30319,7 +30315,7 @@
         <v>17.0</v>
       </c>
       <c r="H38" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -30366,7 +30362,7 @@
         <v>21.0</v>
       </c>
       <c r="H39" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -30413,7 +30409,7 @@
         <v>25.0</v>
       </c>
       <c r="H40" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -30460,7 +30456,7 @@
         <v>29.0</v>
       </c>
       <c r="H41" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -30507,7 +30503,7 @@
         <v>33.0</v>
       </c>
       <c r="H42" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -30554,7 +30550,7 @@
         <v>37.0</v>
       </c>
       <c r="H43" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -30601,7 +30597,7 @@
         <v>41.0</v>
       </c>
       <c r="H44" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -30648,7 +30644,7 @@
         <v>45.0</v>
       </c>
       <c r="H45" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -30695,7 +30691,7 @@
         <v>49.0</v>
       </c>
       <c r="H46" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -30742,7 +30738,7 @@
         <v>53.0</v>
       </c>
       <c r="H47" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -30789,7 +30785,7 @@
         <v>57.0</v>
       </c>
       <c r="H48" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -30836,7 +30832,7 @@
         <v>61.0</v>
       </c>
       <c r="H49" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -30883,7 +30879,7 @@
         <v>65.0</v>
       </c>
       <c r="H50" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -30930,7 +30926,7 @@
         <v>70.0</v>
       </c>
       <c r="H51" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -33667,8 +33663,8 @@
         <v>1.0</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" ref="G109:G124" si="6">D109*20</f>
-        <v>160</v>
+        <f t="shared" ref="G109:G124" si="6">D109*5</f>
+        <v>40</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -33676,7 +33672,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3" t="str">
         <f t="shared" ref="L109:L124" si="7">"恢复生命"&amp;G109</f>
-        <v>恢复生命160</v>
+        <v>恢复生命40</v>
       </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
@@ -33716,7 +33712,7 @@
       </c>
       <c r="G110" s="3">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -33724,7 +33720,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命280</v>
+        <v>恢复生命70</v>
       </c>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
@@ -33762,7 +33758,7 @@
       </c>
       <c r="G111" s="3">
         <f t="shared" si="6"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -33770,7 +33766,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命400</v>
+        <v>恢复生命100</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
@@ -33808,7 +33804,7 @@
       </c>
       <c r="G112" s="3">
         <f t="shared" si="6"/>
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -33816,7 +33812,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命520</v>
+        <v>恢复生命130</v>
       </c>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
@@ -33854,7 +33850,7 @@
       </c>
       <c r="G113" s="3">
         <f t="shared" si="6"/>
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -33862,7 +33858,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命640</v>
+        <v>恢复生命160</v>
       </c>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
@@ -33900,7 +33896,7 @@
       </c>
       <c r="G114" s="3">
         <f t="shared" si="6"/>
-        <v>760</v>
+        <v>190</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -33908,7 +33904,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命760</v>
+        <v>恢复生命190</v>
       </c>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
@@ -33946,7 +33942,7 @@
       </c>
       <c r="G115" s="3">
         <f t="shared" si="6"/>
-        <v>880</v>
+        <v>220</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -33954,7 +33950,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命880</v>
+        <v>恢复生命220</v>
       </c>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
@@ -33992,7 +33988,7 @@
       </c>
       <c r="G116" s="3">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -34000,7 +33996,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1000</v>
+        <v>恢复生命250</v>
       </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
@@ -34038,7 +34034,7 @@
       </c>
       <c r="G117" s="3">
         <f t="shared" si="6"/>
-        <v>1120</v>
+        <v>280</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -34046,7 +34042,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1120</v>
+        <v>恢复生命280</v>
       </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -34084,7 +34080,7 @@
       </c>
       <c r="G118" s="3">
         <f t="shared" si="6"/>
-        <v>1240</v>
+        <v>310</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -34092,7 +34088,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1240</v>
+        <v>恢复生命310</v>
       </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -34130,7 +34126,7 @@
       </c>
       <c r="G119" s="3">
         <f t="shared" si="6"/>
-        <v>1360</v>
+        <v>340</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -34138,7 +34134,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1360</v>
+        <v>恢复生命340</v>
       </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
@@ -34176,7 +34172,7 @@
       </c>
       <c r="G120" s="3">
         <f t="shared" si="6"/>
-        <v>1480</v>
+        <v>370</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -34184,7 +34180,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1480</v>
+        <v>恢复生命370</v>
       </c>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
@@ -34222,7 +34218,7 @@
       </c>
       <c r="G121" s="3">
         <f t="shared" si="6"/>
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -34230,7 +34226,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1600</v>
+        <v>恢复生命400</v>
       </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
@@ -34268,7 +34264,7 @@
       </c>
       <c r="G122" s="3">
         <f t="shared" si="6"/>
-        <v>1720</v>
+        <v>430</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -34276,7 +34272,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1720</v>
+        <v>恢复生命430</v>
       </c>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
@@ -34314,7 +34310,7 @@
       </c>
       <c r="G123" s="3">
         <f t="shared" si="6"/>
-        <v>1840</v>
+        <v>460</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -34322,7 +34318,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1840</v>
+        <v>恢复生命460</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
@@ -34360,7 +34356,7 @@
       </c>
       <c r="G124" s="3">
         <f t="shared" si="6"/>
-        <v>1960</v>
+        <v>490</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -34368,7 +34364,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>恢复生命1960</v>
+        <v>恢复生命490</v>
       </c>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
@@ -34414,13 +34410,13 @@
         <v>500.0</v>
       </c>
       <c r="I125" s="4">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3" t="str">
         <f t="shared" ref="L125:L158" si="9">"提高防御力"&amp;G125&amp;"增加魔法躲避"&amp;H125/100&amp;"%"&amp;"持续时间"&amp;I125/1000&amp;"s"</f>
-        <v>提高防御力3增加魔法躲避5%持续时间1s</v>
+        <v>提高防御力3增加魔法躲避5%持续时间5s</v>
       </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
@@ -34466,13 +34462,13 @@
         <v>580.0</v>
       </c>
       <c r="I126" s="4">
-        <v>1200.0</v>
+        <v>5500.0</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力12增加魔法躲避5.8%持续时间1.2s</v>
+        <v>提高防御力12增加魔法躲避5.8%持续时间5.5s</v>
       </c>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
@@ -34516,13 +34512,13 @@
         <v>660.0</v>
       </c>
       <c r="I127" s="4">
-        <v>1400.0</v>
+        <v>6000.0</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力21增加魔法躲避6.6%持续时间1.4s</v>
+        <v>提高防御力21增加魔法躲避6.6%持续时间6s</v>
       </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
@@ -34566,13 +34562,13 @@
         <v>740.0</v>
       </c>
       <c r="I128" s="4">
-        <v>1600.0</v>
+        <v>6500.0</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力30增加魔法躲避7.4%持续时间1.6s</v>
+        <v>提高防御力30增加魔法躲避7.4%持续时间6.5s</v>
       </c>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
@@ -34616,13 +34612,13 @@
         <v>820.0</v>
       </c>
       <c r="I129" s="4">
-        <v>1800.0</v>
+        <v>7000.0</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力39增加魔法躲避8.2%持续时间1.8s</v>
+        <v>提高防御力39增加魔法躲避8.2%持续时间7s</v>
       </c>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
@@ -34666,13 +34662,13 @@
         <v>900.0</v>
       </c>
       <c r="I130" s="4">
-        <v>2000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力48增加魔法躲避9%持续时间2s</v>
+        <v>提高防御力48增加魔法躲避9%持续时间7.5s</v>
       </c>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
@@ -34716,13 +34712,13 @@
         <v>980.0</v>
       </c>
       <c r="I131" s="4">
-        <v>2200.0</v>
+        <v>8000.0</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力57增加魔法躲避9.8%持续时间2.2s</v>
+        <v>提高防御力57增加魔法躲避9.8%持续时间8s</v>
       </c>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
@@ -34766,13 +34762,13 @@
         <v>1060.0</v>
       </c>
       <c r="I132" s="4">
-        <v>2400.0</v>
+        <v>8500.0</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力66增加魔法躲避10.6%持续时间2.4s</v>
+        <v>提高防御力66增加魔法躲避10.6%持续时间8.5s</v>
       </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
@@ -34816,13 +34812,13 @@
         <v>1140.0</v>
       </c>
       <c r="I133" s="4">
-        <v>2600.0</v>
+        <v>9000.0</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力75增加魔法躲避11.4%持续时间2.6s</v>
+        <v>提高防御力75增加魔法躲避11.4%持续时间9s</v>
       </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -34866,13 +34862,13 @@
         <v>1220.0</v>
       </c>
       <c r="I134" s="4">
-        <v>2800.0</v>
+        <v>9500.0</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力84增加魔法躲避12.2%持续时间2.8s</v>
+        <v>提高防御力84增加魔法躲避12.2%持续时间9.5s</v>
       </c>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
@@ -34916,13 +34912,13 @@
         <v>1300.0</v>
       </c>
       <c r="I135" s="4">
-        <v>3000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力93增加魔法躲避13%持续时间3s</v>
+        <v>提高防御力93增加魔法躲避13%持续时间10s</v>
       </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
@@ -34966,13 +34962,13 @@
         <v>1380.0</v>
       </c>
       <c r="I136" s="4">
-        <v>3200.0</v>
+        <v>10500.0</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力102增加魔法躲避13.8%持续时间3.2s</v>
+        <v>提高防御力102增加魔法躲避13.8%持续时间10.5s</v>
       </c>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
@@ -35016,13 +35012,13 @@
         <v>1460.0</v>
       </c>
       <c r="I137" s="4">
-        <v>3400.0</v>
+        <v>11000.0</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力111增加魔法躲避14.6%持续时间3.4s</v>
+        <v>提高防御力111增加魔法躲避14.6%持续时间11s</v>
       </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
@@ -35066,13 +35062,13 @@
         <v>1540.0</v>
       </c>
       <c r="I138" s="4">
-        <v>3600.0</v>
+        <v>11500.0</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力120增加魔法躲避15.4%持续时间3.6s</v>
+        <v>提高防御力120增加魔法躲避15.4%持续时间11.5s</v>
       </c>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
@@ -35116,13 +35112,13 @@
         <v>1620.0</v>
       </c>
       <c r="I139" s="4">
-        <v>3800.0</v>
+        <v>12000.0</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力129增加魔法躲避16.2%持续时间3.8s</v>
+        <v>提高防御力129增加魔法躲避16.2%持续时间12s</v>
       </c>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
@@ -35166,13 +35162,13 @@
         <v>1700.0</v>
       </c>
       <c r="I140" s="4">
-        <v>4000.0</v>
+        <v>12500.0</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力138增加魔法躲避17%持续时间4s</v>
+        <v>提高防御力138增加魔法躲避17%持续时间12.5s</v>
       </c>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
@@ -35216,13 +35212,13 @@
         <v>1780.0</v>
       </c>
       <c r="I141" s="4">
-        <v>4200.0</v>
+        <v>13000.0</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力147增加魔法躲避17.8%持续时间4.2s</v>
+        <v>提高防御力147增加魔法躲避17.8%持续时间13s</v>
       </c>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
@@ -35266,13 +35262,13 @@
         <v>1860.0</v>
       </c>
       <c r="I142" s="4">
-        <v>4400.0</v>
+        <v>13500.0</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力156增加魔法躲避18.6%持续时间4.4s</v>
+        <v>提高防御力156增加魔法躲避18.6%持续时间13.5s</v>
       </c>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
@@ -35316,13 +35312,13 @@
         <v>1940.0</v>
       </c>
       <c r="I143" s="4">
-        <v>4600.0</v>
+        <v>14000.0</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力165增加魔法躲避19.4%持续时间4.6s</v>
+        <v>提高防御力165增加魔法躲避19.4%持续时间14s</v>
       </c>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
@@ -35366,13 +35362,13 @@
         <v>2020.0</v>
       </c>
       <c r="I144" s="4">
-        <v>4800.0</v>
+        <v>14500.0</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力174增加魔法躲避20.2%持续时间4.8s</v>
+        <v>提高防御力174增加魔法躲避20.2%持续时间14.5s</v>
       </c>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
@@ -35416,13 +35412,13 @@
         <v>2100.0</v>
       </c>
       <c r="I145" s="4">
-        <v>5000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力183增加魔法躲避21%持续时间5s</v>
+        <v>提高防御力183增加魔法躲避21%持续时间15s</v>
       </c>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
@@ -35466,13 +35462,13 @@
         <v>2180.0</v>
       </c>
       <c r="I146" s="4">
-        <v>5200.0</v>
+        <v>15500.0</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力192增加魔法躲避21.8%持续时间5.2s</v>
+        <v>提高防御力192增加魔法躲避21.8%持续时间15.5s</v>
       </c>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
@@ -35516,13 +35512,13 @@
         <v>2260.0</v>
       </c>
       <c r="I147" s="4">
-        <v>5400.0</v>
+        <v>16000.0</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力201增加魔法躲避22.6%持续时间5.4s</v>
+        <v>提高防御力201增加魔法躲避22.6%持续时间16s</v>
       </c>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
@@ -35566,13 +35562,13 @@
         <v>2340.0</v>
       </c>
       <c r="I148" s="4">
-        <v>5600.0</v>
+        <v>16500.0</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力210增加魔法躲避23.4%持续时间5.6s</v>
+        <v>提高防御力210增加魔法躲避23.4%持续时间16.5s</v>
       </c>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -35616,13 +35612,13 @@
         <v>2420.0</v>
       </c>
       <c r="I149" s="4">
-        <v>5800.0</v>
+        <v>17000.0</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力219增加魔法躲避24.2%持续时间5.8s</v>
+        <v>提高防御力219增加魔法躲避24.2%持续时间17s</v>
       </c>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
@@ -35666,13 +35662,13 @@
         <v>2500.0</v>
       </c>
       <c r="I150" s="4">
-        <v>6000.0</v>
+        <v>17500.0</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力228增加魔法躲避25%持续时间6s</v>
+        <v>提高防御力228增加魔法躲避25%持续时间17.5s</v>
       </c>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
@@ -35716,13 +35712,13 @@
         <v>2580.0</v>
       </c>
       <c r="I151" s="4">
-        <v>6200.0</v>
+        <v>18000.0</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力237增加魔法躲避25.8%持续时间6.2s</v>
+        <v>提高防御力237增加魔法躲避25.8%持续时间18s</v>
       </c>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
@@ -35766,13 +35762,13 @@
         <v>2660.0</v>
       </c>
       <c r="I152" s="4">
-        <v>6400.0</v>
+        <v>18500.0</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力246增加魔法躲避26.6%持续时间6.4s</v>
+        <v>提高防御力246增加魔法躲避26.6%持续时间18.5s</v>
       </c>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
@@ -35816,13 +35812,13 @@
         <v>2740.0</v>
       </c>
       <c r="I153" s="4">
-        <v>6600.0</v>
+        <v>19000.0</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力255增加魔法躲避27.4%持续时间6.6s</v>
+        <v>提高防御力255增加魔法躲避27.4%持续时间19s</v>
       </c>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
@@ -35866,13 +35862,13 @@
         <v>2820.0</v>
       </c>
       <c r="I154" s="4">
-        <v>6800.0</v>
+        <v>19500.0</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力264增加魔法躲避28.2%持续时间6.8s</v>
+        <v>提高防御力264增加魔法躲避28.2%持续时间19.5s</v>
       </c>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
@@ -35916,13 +35912,13 @@
         <v>2900.0</v>
       </c>
       <c r="I155" s="4">
-        <v>7000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力273增加魔法躲避29%持续时间7s</v>
+        <v>提高防御力273增加魔法躲避29%持续时间20s</v>
       </c>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
@@ -35966,13 +35962,13 @@
         <v>2980.0</v>
       </c>
       <c r="I156" s="4">
-        <v>7200.0</v>
+        <v>20500.0</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力282增加魔法躲避29.8%持续时间7.2s</v>
+        <v>提高防御力282增加魔法躲避29.8%持续时间20.5s</v>
       </c>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
@@ -36016,13 +36012,13 @@
         <v>3060.0</v>
       </c>
       <c r="I157" s="4">
-        <v>7400.0</v>
+        <v>21000.0</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力291增加魔法躲避30.6%持续时间7.4s</v>
+        <v>提高防御力291增加魔法躲避30.6%持续时间21s</v>
       </c>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
@@ -36066,13 +36062,13 @@
         <v>3140.0</v>
       </c>
       <c r="I158" s="4">
-        <v>7600.0</v>
+        <v>21500.0</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>提高防御力300增加魔法躲避31.4%持续时间7.6s</v>
+        <v>提高防御力300增加魔法躲避31.4%持续时间21.5s</v>
       </c>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
